--- a/xdata/donate7 테이블 명세서.xlsx
+++ b/xdata/donate7 테이블 명세서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="20415" windowHeight="7710" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="20415" windowHeight="7710" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="회원" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="477">
   <si>
     <t>테이블ID</t>
   </si>
@@ -1027,14 +1027,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GIFT_SELL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GS_NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기프티콘 구매 내역 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1051,10 +1043,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GS_CHK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기프티콘 사용 체크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1896,6 +1884,26 @@
   </si>
   <si>
     <t>N:배송대기, Y:배송중, O:배송완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIFT_BUY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB_CHK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:사용완료, N:사용안함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐시/포인트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2597,14 +2605,14 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="41" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D1" s="42"/>
       <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G1" s="44"/>
       <c r="H1" s="44"/>
@@ -2615,7 +2623,7 @@
         <v>2</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
@@ -2644,7 +2652,7 @@
       </c>
       <c r="B2" s="40"/>
       <c r="C2" s="43" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D2" s="44"/>
       <c r="E2" s="44"/>
@@ -2891,11 +2899,11 @@
         <v>1</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="46" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E8" s="47"/>
       <c r="F8" s="48"/>
@@ -2938,11 +2946,11 @@
         <v>2</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="46" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E9" s="47"/>
       <c r="F9" s="48"/>
@@ -2956,7 +2964,7 @@
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="49" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M9" s="50"/>
       <c r="N9" s="12"/>
@@ -2985,11 +2993,11 @@
         <v>3</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="46" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E10" s="47"/>
       <c r="F10" s="48"/>
@@ -3030,11 +3038,11 @@
         <v>4</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C11" s="42"/>
       <c r="D11" s="46" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E11" s="47"/>
       <c r="F11" s="48"/>
@@ -3075,11 +3083,11 @@
         <v>5</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="52" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E12" s="53"/>
       <c r="F12" s="54"/>
@@ -3093,7 +3101,7 @@
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="49" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M12" s="50"/>
       <c r="N12" s="12"/>
@@ -3122,11 +3130,11 @@
         <v>6</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="52" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -3167,18 +3175,18 @@
         <v>7</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="52" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E14" s="53"/>
       <c r="F14" s="54"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>24</v>
@@ -3212,11 +3220,11 @@
         <v>8</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="52" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E15" s="53"/>
       <c r="F15" s="54"/>
@@ -3257,11 +3265,11 @@
         <v>9</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="52" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E16" s="53"/>
       <c r="F16" s="54"/>
@@ -3302,11 +3310,11 @@
         <v>10</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="52" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E17" s="53"/>
       <c r="F17" s="54"/>
@@ -3319,7 +3327,7 @@
         <v>24</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L17" s="49"/>
       <c r="M17" s="50"/>
@@ -3349,11 +3357,11 @@
         <v>11</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="52" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -3364,7 +3372,7 @@
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L18" s="41"/>
       <c r="M18" s="42"/>
@@ -3394,11 +3402,11 @@
         <v>12</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C19" s="42"/>
       <c r="D19" s="52" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E19" s="53"/>
       <c r="F19" s="54"/>
@@ -3414,7 +3422,7 @@
         <v>148</v>
       </c>
       <c r="L19" s="49" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="M19" s="50"/>
       <c r="N19" s="12"/>
@@ -3549,14 +3557,14 @@
       </c>
       <c r="B23" s="40"/>
       <c r="C23" s="41" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D23" s="42"/>
       <c r="E23" s="8" t="s">
         <v>1</v>
       </c>
       <c r="F23" s="43" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G23" s="44"/>
       <c r="H23" s="44"/>
@@ -3567,7 +3575,7 @@
         <v>2</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
@@ -3596,7 +3604,7 @@
       </c>
       <c r="B24" s="40"/>
       <c r="C24" s="43" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D24" s="44"/>
       <c r="E24" s="44"/>
@@ -3843,11 +3851,11 @@
         <v>1</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C30" s="42"/>
       <c r="D30" s="46" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E30" s="47"/>
       <c r="F30" s="48"/>
@@ -3890,11 +3898,11 @@
         <v>2</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C31" s="42"/>
       <c r="D31" s="46" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E31" s="47"/>
       <c r="F31" s="48"/>
@@ -3908,7 +3916,7 @@
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="49" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M31" s="50"/>
       <c r="N31" s="12"/>
@@ -3937,11 +3945,11 @@
         <v>3</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C32" s="42"/>
       <c r="D32" s="46" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E32" s="47"/>
       <c r="F32" s="48"/>
@@ -3982,11 +3990,11 @@
         <v>4</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C33" s="42"/>
       <c r="D33" s="46" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E33" s="47"/>
       <c r="F33" s="48"/>
@@ -4027,11 +4035,11 @@
         <v>5</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C34" s="42"/>
       <c r="D34" s="46" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E34" s="47"/>
       <c r="F34" s="48"/>
@@ -4045,7 +4053,7 @@
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="49" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M34" s="50"/>
       <c r="N34" s="12"/>
@@ -4074,11 +4082,11 @@
         <v>6</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="52" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E35" s="53"/>
       <c r="F35" s="54"/>
@@ -4119,11 +4127,11 @@
         <v>7</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C36" s="42"/>
       <c r="D36" s="52" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E36" s="53"/>
       <c r="F36" s="54"/>
@@ -4164,18 +4172,18 @@
         <v>8</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C37" s="42"/>
       <c r="D37" s="52" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E37" s="53"/>
       <c r="F37" s="54"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>24</v>
@@ -4209,11 +4217,11 @@
         <v>9</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C38" s="42"/>
       <c r="D38" s="52" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E38" s="53"/>
       <c r="F38" s="54"/>
@@ -4254,11 +4262,11 @@
         <v>10</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="13" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
@@ -4271,7 +4279,7 @@
         <v>24</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="7"/>
@@ -4301,11 +4309,11 @@
         <v>11</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="13" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="15"/>
@@ -4316,7 +4324,7 @@
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L40" s="4"/>
       <c r="M40" s="5"/>
@@ -4346,11 +4354,11 @@
         <v>12</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C41" s="42"/>
       <c r="D41" s="52" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E41" s="53"/>
       <c r="F41" s="54"/>
@@ -4366,7 +4374,7 @@
         <v>148</v>
       </c>
       <c r="L41" s="49" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="M41" s="50"/>
       <c r="N41" s="12"/>
@@ -4395,11 +4403,11 @@
         <v>13</v>
       </c>
       <c r="B42" s="41" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C42" s="42"/>
       <c r="D42" s="52" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E42" s="53"/>
       <c r="F42" s="54"/>
@@ -4412,10 +4420,10 @@
         <v>24</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L42" s="49" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M42" s="50"/>
       <c r="N42" s="12"/>
@@ -6472,7 +6480,7 @@
         <v>119</v>
       </c>
       <c r="L12" s="49" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="M12" s="50"/>
       <c r="N12" s="12"/>
@@ -7078,7 +7086,7 @@
         <v>42</v>
       </c>
       <c r="L34" s="49" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="M34" s="50"/>
       <c r="N34" s="12"/>
@@ -23772,7 +23780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -24466,14 +24474,14 @@
       </c>
       <c r="B24" s="40"/>
       <c r="C24" s="41" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D24" s="42"/>
       <c r="E24" s="32" t="s">
         <v>1</v>
       </c>
       <c r="F24" s="43" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G24" s="44"/>
       <c r="H24" s="44"/>
@@ -24499,7 +24507,7 @@
       </c>
       <c r="B25" s="40"/>
       <c r="C25" s="43" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D25" s="44"/>
       <c r="E25" s="44"/>
@@ -24662,11 +24670,11 @@
         <v>1</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C31" s="42"/>
       <c r="D31" s="46" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E31" s="47"/>
       <c r="F31" s="48"/>
@@ -24695,27 +24703,27 @@
         <v>2</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C32" s="42"/>
       <c r="D32" s="46" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E32" s="47"/>
       <c r="F32" s="48"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="49" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="M32" s="50"/>
       <c r="N32" s="12"/>
@@ -24730,17 +24738,17 @@
         <v>3</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C33" s="42"/>
       <c r="D33" s="46" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E33" s="47"/>
       <c r="F33" s="48"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>23</v>
@@ -24750,7 +24758,7 @@
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="49" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M33" s="50"/>
       <c r="N33" s="12"/>
@@ -24765,11 +24773,11 @@
         <v>4</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C34" s="42"/>
       <c r="D34" s="46" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E34" s="47"/>
       <c r="F34" s="48"/>
@@ -24798,18 +24806,18 @@
         <v>5</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="52" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E35" s="53"/>
       <c r="F35" s="54"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>24</v>
@@ -25005,7 +25013,7 @@
         <v>2</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
@@ -25530,7 +25538,7 @@
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="49" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="M13" s="50"/>
       <c r="N13" s="12"/>
@@ -25852,7 +25860,7 @@
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L20" s="41"/>
       <c r="M20" s="42"/>
@@ -26006,7 +26014,7 @@
         <v>2</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
@@ -26286,7 +26294,7 @@
       </c>
       <c r="C31" s="42"/>
       <c r="D31" s="46" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E31" s="47"/>
       <c r="F31" s="48"/>
@@ -26329,11 +26337,11 @@
         <v>2</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C32" s="42"/>
       <c r="D32" s="52" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E32" s="53"/>
       <c r="F32" s="54"/>
@@ -26342,7 +26350,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>235</v>
@@ -26378,11 +26386,11 @@
         <v>3</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C33" s="42"/>
       <c r="D33" s="46" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E33" s="47"/>
       <c r="F33" s="48"/>
@@ -26391,14 +26399,14 @@
         <v>233</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>235</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="49" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M33" s="50"/>
       <c r="N33" s="12"/>
@@ -26427,11 +26435,11 @@
         <v>4</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C34" s="42"/>
       <c r="D34" s="52" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -26483,7 +26491,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>235</v>
@@ -26517,21 +26525,21 @@
         <v>6</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C36" s="26"/>
       <c r="D36" s="29" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E36" s="30"/>
       <c r="F36" s="31"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="27"/>
@@ -26562,21 +26570,21 @@
         <v>7</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C37" s="26"/>
       <c r="D37" s="29" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E37" s="30"/>
       <c r="F37" s="31"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="27"/>
@@ -26627,7 +26635,7 @@
         <v>24</v>
       </c>
       <c r="L38" s="49" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="M38" s="50"/>
       <c r="N38" s="12"/>
@@ -30033,7 +30041,7 @@
       </c>
       <c r="B2" s="61"/>
       <c r="C2" s="43" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D2" s="44"/>
       <c r="E2" s="44"/>
@@ -30632,7 +30640,7 @@
         <v>148</v>
       </c>
       <c r="L16" s="49" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M16" s="50"/>
       <c r="N16" s="12"/>
@@ -31722,7 +31730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y82"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D32" sqref="D32:F32"/>
     </sheetView>
   </sheetViews>
@@ -31739,14 +31747,14 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="41" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D1" s="42"/>
       <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G1" s="44"/>
       <c r="H1" s="44"/>
@@ -31757,7 +31765,7 @@
         <v>2</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
@@ -31778,7 +31786,7 @@
       </c>
       <c r="B2" s="40"/>
       <c r="C2" s="43" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D2" s="44"/>
       <c r="E2" s="44"/>
@@ -31977,11 +31985,11 @@
         <v>1</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="46" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E8" s="47"/>
       <c r="F8" s="48"/>
@@ -32016,11 +32024,11 @@
         <v>2</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="46" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E9" s="47"/>
       <c r="F9" s="48"/>
@@ -32053,11 +32061,11 @@
         <v>3</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="46" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E10" s="47"/>
       <c r="F10" s="48"/>
@@ -32090,18 +32098,18 @@
         <v>4</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C11" s="42"/>
       <c r="D11" s="19" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="21"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>235</v>
@@ -32127,11 +32135,11 @@
         <v>5</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="19" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
@@ -32147,7 +32155,7 @@
         <v>235</v>
       </c>
       <c r="L12" s="49" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M12" s="50"/>
       <c r="N12" s="12"/>
@@ -32168,11 +32176,11 @@
         <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="13" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="15"/>
@@ -32207,11 +32215,11 @@
         <v>7</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="52" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E14" s="53"/>
       <c r="F14" s="54"/>
@@ -32225,7 +32233,7 @@
       </c>
       <c r="K14" s="24"/>
       <c r="L14" s="49" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="M14" s="50"/>
       <c r="N14" s="12"/>
@@ -32246,11 +32254,11 @@
         <v>8</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="52" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E15" s="53"/>
       <c r="F15" s="54"/>
@@ -32352,14 +32360,14 @@
       </c>
       <c r="B19" s="40"/>
       <c r="C19" s="41" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="8" t="s">
         <v>1</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G19" s="44"/>
       <c r="H19" s="44"/>
@@ -32370,7 +32378,7 @@
         <v>2</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
@@ -32391,7 +32399,7 @@
       </c>
       <c r="B20" s="40"/>
       <c r="C20" s="43" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D20" s="44"/>
       <c r="E20" s="44"/>
@@ -32590,11 +32598,11 @@
         <v>1</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C26" s="42"/>
       <c r="D26" s="46" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E26" s="47"/>
       <c r="F26" s="48"/>
@@ -32629,11 +32637,11 @@
         <v>2</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C27" s="42"/>
       <c r="D27" s="46" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E27" s="47"/>
       <c r="F27" s="48"/>
@@ -32649,7 +32657,7 @@
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="49" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="M27" s="50"/>
       <c r="N27" s="12"/>
@@ -32670,11 +32678,11 @@
         <v>3</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C28" s="42"/>
       <c r="D28" s="46" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E28" s="47"/>
       <c r="F28" s="48"/>
@@ -32690,7 +32698,7 @@
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="49" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="M28" s="50"/>
       <c r="N28" s="12"/>
@@ -32711,11 +32719,11 @@
         <v>4</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C29" s="42"/>
       <c r="D29" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="21"/>
@@ -32748,11 +32756,11 @@
         <v>5</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="21"/>
@@ -32785,11 +32793,11 @@
         <v>6</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="15"/>
@@ -32822,18 +32830,18 @@
         <v>7</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C32" s="42"/>
       <c r="D32" s="52" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E32" s="53"/>
       <c r="F32" s="54"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>235</v>
@@ -34268,14 +34276,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE97"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
+    <col min="7" max="8" width="7.125" customWidth="1"/>
     <col min="9" max="9" width="13.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -34291,7 +34301,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G1" s="44"/>
       <c r="H1" s="44"/>
@@ -34302,7 +34312,7 @@
         <v>2</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
@@ -34329,7 +34339,7 @@
       </c>
       <c r="B2" s="40"/>
       <c r="C2" s="43" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D2" s="44"/>
       <c r="E2" s="44"/>
@@ -34838,14 +34848,14 @@
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="41" t="s">
-        <v>257</v>
+        <v>472</v>
       </c>
       <c r="D15" s="42"/>
       <c r="E15" s="8" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="43" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G15" s="44"/>
       <c r="H15" s="44"/>
@@ -34856,7 +34866,7 @@
         <v>2</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
@@ -34883,7 +34893,7 @@
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="43" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D16" s="44"/>
       <c r="E16" s="44"/>
@@ -35118,11 +35128,11 @@
         <v>1</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>258</v>
+        <v>473</v>
       </c>
       <c r="C22" s="42"/>
       <c r="D22" s="46" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E22" s="47"/>
       <c r="F22" s="48"/>
@@ -35167,7 +35177,7 @@
       </c>
       <c r="C23" s="42"/>
       <c r="D23" s="46" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E23" s="47"/>
       <c r="F23" s="48"/>
@@ -35183,7 +35193,7 @@
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="49" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M23" s="50"/>
       <c r="N23" s="12"/>
@@ -35210,11 +35220,11 @@
         <v>3</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C24" s="42"/>
       <c r="D24" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="21"/>
@@ -35257,18 +35267,18 @@
         <v>4</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>263</v>
+        <v>474</v>
       </c>
       <c r="C25" s="42"/>
       <c r="D25" s="52" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E25" s="53"/>
       <c r="F25" s="54"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>235</v>
@@ -35276,7 +35286,9 @@
       <c r="K25" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="L25" s="49"/>
+      <c r="L25" s="49" t="s">
+        <v>475</v>
+      </c>
       <c r="M25" s="50"/>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
@@ -35402,14 +35414,14 @@
       </c>
       <c r="B29" s="40"/>
       <c r="C29" s="41" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D29" s="42"/>
       <c r="E29" s="8" t="s">
         <v>1</v>
       </c>
       <c r="F29" s="43" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G29" s="44"/>
       <c r="H29" s="44"/>
@@ -35420,7 +35432,7 @@
         <v>2</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>312</v>
+        <v>476</v>
       </c>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
@@ -35447,7 +35459,7 @@
       </c>
       <c r="B30" s="40"/>
       <c r="C30" s="43" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D30" s="44"/>
       <c r="E30" s="44"/>
@@ -35682,11 +35694,11 @@
         <v>1</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C36" s="42"/>
       <c r="D36" s="46" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E36" s="47"/>
       <c r="F36" s="48"/>
@@ -35727,11 +35739,11 @@
         <v>2</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C37" s="42"/>
       <c r="D37" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="21"/>
@@ -35774,25 +35786,25 @@
         <v>3</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="19" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="21"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>235</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="M38" s="7"/>
       <c r="N38" s="12"/>
@@ -35819,18 +35831,18 @@
         <v>4</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C39" s="42"/>
       <c r="D39" s="52" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E39" s="53"/>
       <c r="F39" s="54"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>235</v>
@@ -35864,11 +35876,11 @@
         <v>5</v>
       </c>
       <c r="B40" s="41" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C40" s="42"/>
       <c r="D40" s="52" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E40" s="53"/>
       <c r="F40" s="54"/>
@@ -35907,11 +35919,11 @@
         <v>6</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C41" s="42"/>
       <c r="D41" s="52" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E41" s="53"/>
       <c r="F41" s="54"/>
@@ -37627,14 +37639,14 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="41" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D1" s="42"/>
       <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G1" s="44"/>
       <c r="H1" s="44"/>
@@ -37645,7 +37657,7 @@
         <v>2</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
@@ -37664,7 +37676,7 @@
       </c>
       <c r="B2" s="40"/>
       <c r="C2" s="43" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D2" s="44"/>
       <c r="E2" s="44"/>
@@ -37851,11 +37863,11 @@
         <v>1</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="46" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E8" s="47"/>
       <c r="F8" s="48"/>
@@ -37888,18 +37900,18 @@
         <v>2</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="46" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E9" s="47"/>
       <c r="F9" s="48"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>24</v>
@@ -37923,7 +37935,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="46" t="s">
@@ -37934,7 +37946,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>24</v>
@@ -37958,11 +37970,11 @@
         <v>4</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C11" s="42"/>
       <c r="D11" s="46" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E11" s="47"/>
       <c r="F11" s="48"/>
@@ -37995,18 +38007,18 @@
         <v>5</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="52" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E12" s="53"/>
       <c r="F12" s="54"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>24</v>
@@ -38030,11 +38042,11 @@
         <v>6</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="52" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -38067,11 +38079,11 @@
         <v>7</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="52" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E14" s="53"/>
       <c r="F14" s="54"/>
@@ -38082,7 +38094,7 @@
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L14" s="49"/>
       <c r="M14" s="50"/>
@@ -38102,11 +38114,11 @@
         <v>8</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="52" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E15" s="53"/>
       <c r="F15" s="54"/>
@@ -38122,7 +38134,7 @@
         <v>24</v>
       </c>
       <c r="L15" s="49" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="M15" s="50"/>
       <c r="N15" s="12"/>
@@ -38141,11 +38153,11 @@
         <v>9</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="52" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E16" s="53"/>
       <c r="F16" s="54"/>
@@ -38176,11 +38188,11 @@
         <v>10</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="52" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E17" s="53"/>
       <c r="F17" s="54"/>
@@ -38211,11 +38223,11 @@
         <v>11</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="52" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -38246,11 +38258,11 @@
         <v>12</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C19" s="42"/>
       <c r="D19" s="52" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E19" s="53"/>
       <c r="F19" s="54"/>
@@ -38266,7 +38278,7 @@
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="49" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="M19" s="50"/>
       <c r="N19" s="12"/>
@@ -38361,14 +38373,14 @@
       </c>
       <c r="B23" s="40"/>
       <c r="C23" s="41" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D23" s="42"/>
       <c r="E23" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F23" s="43" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G23" s="44"/>
       <c r="H23" s="44"/>
@@ -38379,7 +38391,7 @@
         <v>2</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
@@ -38398,7 +38410,7 @@
       </c>
       <c r="B24" s="40"/>
       <c r="C24" s="43" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D24" s="44"/>
       <c r="E24" s="44"/>
@@ -38585,11 +38597,11 @@
         <v>1</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C30" s="42"/>
       <c r="D30" s="46" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E30" s="47"/>
       <c r="F30" s="48"/>
@@ -38622,18 +38634,18 @@
         <v>2</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C31" s="42"/>
       <c r="D31" s="46" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E31" s="47"/>
       <c r="F31" s="48"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>24</v>
@@ -38657,11 +38669,11 @@
         <v>3</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C32" s="42"/>
       <c r="D32" s="46" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E32" s="47"/>
       <c r="F32" s="48"/>
@@ -38694,11 +38706,11 @@
         <v>4</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C33" s="42"/>
       <c r="D33" s="46" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E33" s="47"/>
       <c r="F33" s="48"/>
@@ -38709,7 +38721,7 @@
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L33" s="49"/>
       <c r="M33" s="50"/>
@@ -38729,11 +38741,11 @@
         <v>5</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C34" s="42"/>
       <c r="D34" s="52" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -38746,10 +38758,10 @@
         <v>24</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="L34" s="49" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="M34" s="50"/>
       <c r="N34" s="12"/>
@@ -38768,11 +38780,11 @@
         <v>6</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="52" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E35" s="53"/>
       <c r="F35" s="54"/>
@@ -38787,7 +38799,7 @@
         <v>24</v>
       </c>
       <c r="L35" s="49" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="M35" s="50"/>
       <c r="N35" s="12"/>
@@ -38806,11 +38818,11 @@
         <v>7</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C36" s="42"/>
       <c r="D36" s="52" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E36" s="53"/>
       <c r="F36" s="54"/>
@@ -38826,7 +38838,7 @@
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="49" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="M36" s="50"/>
       <c r="N36" s="12"/>
